--- a/data/trans_dic/P9_4-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P9_4-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no posee ni teléfono móvil ni ordenador ni portátil en su vivienda actual</t>
+          <t>Población que no posee ni teléfono móvil ni ordenador ni portátil en su vivienda actual (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -606,7 +607,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +617,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +627,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>1,08%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,27</t>
+          <t>0,47; 2,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,77</t>
+          <t>0,17; 1,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,36</t>
+          <t>0,66; 2,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,46</t>
+          <t>0,64; 2,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,97</t>
+          <t>0,69; 1,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,69</t>
+          <t>0,6; 1,86</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,32%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,71</t>
+          <t>0,0; 1,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,48</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,02</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,84</t>
+          <t>0,08; 0,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,02</t>
+          <t>0,0; 1,17</t>
         </is>
       </c>
     </row>
@@ -766,7 +767,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +777,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +787,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>2,5%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,64</t>
+          <t>0,0; 4,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,12</t>
+          <t>0,0; 6,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 7,18</t>
+          <t>0,86; 7,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 8,23</t>
+          <t>0,75; 8,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,28</t>
+          <t>0,64; 4,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 10,51</t>
+          <t>0,78; 5,48</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +857,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +867,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>0,95%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,32</t>
+          <t>0,34; 1,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,88</t>
+          <t>0,24; 1,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,91</t>
+          <t>0,65; 1,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,05</t>
+          <t>0,71; 2,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 1,33</t>
+          <t>0,63; 1,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,94</t>
+          <t>0,58; 1,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no posee ni teléfono móvil ni ordenador ni portátil en su vivienda actual (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18302</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11729</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22384</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>25658</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>40686</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>37388</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7713; 39954</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2855; 29484</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>11731; 41587</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11494; 50876</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>23634; 65211</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20736; 64467</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2386</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5814</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8904</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8199</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8904</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 14422</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18471</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 31428</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2347; 22288</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 32273</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3918</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8667</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12331</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12162</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>16249</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>20829</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19647</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 28601</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3557; 29498</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3103; 35071</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5320; 35237</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6521; 45744</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>24606</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>20397</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>40529</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>46724</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>65135</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>67121</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>11667; 43280</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8317; 44010</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>23330; 64337</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>25792; 79925</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>44399; 96428</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>40677; 102727</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>